--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P37_trail13 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P37_trail13 Features.xlsx
@@ -2526,7 +2526,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2537,29 +2537,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="17" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="17" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2580,115 +2578,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -2705,72 +2693,66 @@
         <v>2.151669229572845e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>2.480508481739078</v>
+        <v>1.465401754372552e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>8.563297156268174</v>
+        <v>2.901513421667261e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.465401754372552e-06</v>
+        <v>-0.1136170474054788</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.901513421667261e-06</v>
+        <v>0.2950805995625038</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.1136170474054788</v>
+        <v>0.09975908595411075</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2950805995625038</v>
+        <v>1.906777989877804</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.09975908595411075</v>
+        <v>2.555822690288455</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.94261644045803</v>
+        <v>4.589099907165027</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.555822690288455</v>
+        <v>5.423295885748029e-17</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.589099907165027</v>
+        <v>3087813019.218382</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>5.423295885748029e-17</v>
+        <v>3.88532843238274e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>3087813019.218382</v>
+        <v>517.0889860656248</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.88532843238274e-08</v>
+        <v>0.0001576479959589303</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>517.0889860656248</v>
+        <v>12.88790039066079</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001576479959589303</v>
+        <v>1.098091540549145</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>12.88790039066079</v>
+        <v>0.02618501312484161</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.098091540549145</v>
+        <v>4.205134737507713</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.02618501312484161</v>
+        <v>0.9608977345246424</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>4.205134737507713</v>
+        <v>0.8950079360135835</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9608977345246424</v>
+        <v>0</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.8950079360135835</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>4.159644042321169</v>
       </c>
     </row>
@@ -2785,72 +2767,66 @@
         <v>1.733406697877296e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1.672735684724155</v>
+        <v>1.126716731121488e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>5.103252555551315</v>
+        <v>2.880063685704848e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.126716731121488e-06</v>
+        <v>-0.1084310832151657</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.880063685704848e-06</v>
+        <v>0.274869722117332</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.1084310832151657</v>
+        <v>0.08712764109867038</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.274869722117332</v>
+        <v>1.909354303383381</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.08712764109867038</v>
+        <v>2.511807843435748</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.943295925307316</v>
+        <v>5.101427924523433</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.511807843435748</v>
+        <v>4.388689084674261e-17</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.101427924523433</v>
+        <v>3919267037.578516</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>4.388689084674261e-17</v>
+        <v>3.068945633164591e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>3919267037.578516</v>
+        <v>674.1313503413061</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.068945633164591e-08</v>
+        <v>0.0001526749891640101</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>674.1313503413061</v>
+        <v>12.1130841414132</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001526749891640101</v>
+        <v>1.187135337831368</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>12.1130841414132</v>
+        <v>0.02240151373245353</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.187135337831368</v>
+        <v>4.419908953955928</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.02240151373245353</v>
+        <v>0.9622648357835978</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>4.419908953955928</v>
+        <v>0.8784787228148999</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9622648357835978</v>
+        <v>0</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.8784787228148999</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>4.716337416154056</v>
       </c>
     </row>
@@ -2865,72 +2841,66 @@
         <v>1.478223606913342e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.835555056964151</v>
+        <v>8.831556627117666e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>2.026444407732413</v>
+        <v>2.863429060433748e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>8.831556627117666e-07</v>
+        <v>-0.09965412373863558</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.863429060433748e-06</v>
+        <v>0.2502929489934164</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.09965412373863558</v>
+        <v>0.07244987075419639</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2502929489934164</v>
+        <v>1.917628447129068</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.07244987075419639</v>
+        <v>2.658540592410521</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.946126087567682</v>
+        <v>5.4958062826052</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.658540592410521</v>
+        <v>3.381821022692074e-17</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.4958062826052</v>
+        <v>5391984469.175631</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.381821022692074e-17</v>
+        <v>2.247860194534662e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>5391984469.175631</v>
+        <v>983.2136172040275</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.247860194534662e-08</v>
+        <v>0.0001559058880400972</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>983.2136172040275</v>
+        <v>12.56306344339152</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001559058880400972</v>
+        <v>1.127342447714399</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>12.56306344339152</v>
+        <v>0.02460671409727387</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.127342447714399</v>
+        <v>4.332687475458564</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.02460671409727387</v>
+        <v>0.9633901859927957</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>4.332687475458564</v>
+        <v>0.9170955979473011</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9633901859927957</v>
+        <v>0</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.9170955979473011</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>4.734494471201742</v>
       </c>
     </row>
@@ -2945,72 +2915,66 @@
         <v>1.335147247572012e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.1876711278824732</v>
+        <v>7.053790034035941e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.06975491845481896</v>
+        <v>2.850259240596505e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>7.053790034035941e-07</v>
+        <v>-0.08811769417234241</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.850259240596505e-06</v>
+        <v>0.2250232336596286</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.08811769417234241</v>
+        <v>0.05831216992525073</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2250232336596286</v>
+        <v>1.917166876959253</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.05831216992525073</v>
+        <v>2.779971660856776</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.944758469151796</v>
+        <v>5.145547176086641</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.779971660856776</v>
+        <v>3.479879890827408e-17</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>5.145547176086641</v>
+        <v>5213490237.097026</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3.479879890827408e-17</v>
+        <v>2.321446030985706e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>5213490237.097026</v>
+        <v>945.848073490071</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.321446030985706e-08</v>
+        <v>0.000165398806727251</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>945.848073490071</v>
+        <v>13.1940276539705</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.000165398806727251</v>
+        <v>1.06747863562967</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>13.1940276539705</v>
+        <v>0.02879301556461717</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.06747863562967</v>
+        <v>4.098187968454405</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.02879301556461717</v>
+        <v>0.9634898396491968</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>4.098187968454405</v>
+        <v>0.8917383360073463</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9634898396491968</v>
+        <v>0</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.8917383360073463</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>4.309398727852887</v>
       </c>
     </row>
@@ -3387,7 +3351,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.683060842078762</v>
+        <v>1.683660132186334</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.909712691796755</v>
@@ -3476,7 +3440,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.66992837635708</v>
+        <v>1.677988774482864</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.451665510949097</v>
@@ -3565,7 +3529,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.678993799329824</v>
+        <v>1.690536739463903</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.900678390663086</v>
@@ -3654,7 +3618,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.708842945483216</v>
+        <v>1.713260999823425</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.94713628399415</v>
@@ -3743,7 +3707,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.709566206003527</v>
+        <v>1.712243977684224</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.876901244846564</v>
@@ -3832,7 +3796,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.684916691431183</v>
+        <v>1.690735749638453</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.762258679673984</v>
@@ -3921,7 +3885,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.682812141365438</v>
+        <v>1.69542576951485</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.821292802207783</v>
@@ -4010,7 +3974,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.647525036970032</v>
+        <v>1.662843637769306</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.765396387511779</v>
@@ -4099,7 +4063,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.569550224726922</v>
+        <v>1.594370117136628</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.249676606134484</v>
@@ -4188,7 +4152,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.564501719083013</v>
+        <v>1.591496547060259</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.198335037813426</v>
@@ -4277,7 +4241,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.536063267563076</v>
+        <v>1.56460014960562</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.095910883604783</v>
@@ -4366,7 +4330,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.524876561097129</v>
+        <v>1.556026513943418</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.227592990212736</v>
@@ -4455,7 +4419,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.527011605525744</v>
+        <v>1.559548853324122</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.24335891772908</v>
@@ -4544,7 +4508,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.524709084115376</v>
+        <v>1.558887018064131</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.185655979237448</v>
@@ -4633,7 +4597,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.511091409986717</v>
+        <v>1.546589000929144</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.247621745784658</v>
@@ -4722,7 +4686,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.532360634891269</v>
+        <v>1.567340773789094</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.1349112659626</v>
@@ -4811,7 +4775,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.528010901320488</v>
+        <v>1.562685310438727</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.158588329092775</v>
@@ -4900,7 +4864,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.521588467183381</v>
+        <v>1.559922236075344</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.269098294457493</v>
@@ -4989,7 +4953,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.545770334546442</v>
+        <v>1.58993120452721</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.352064610024693</v>
@@ -5078,7 +5042,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.501685494644702</v>
+        <v>1.543708709159403</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.368321424002149</v>
@@ -5167,7 +5131,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.505801733190272</v>
+        <v>1.547733375232378</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.302863513887357</v>
@@ -5256,7 +5220,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.512275358118734</v>
+        <v>1.551415824342896</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.277780543092855</v>
@@ -5345,7 +5309,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.503317625487978</v>
+        <v>1.543938742689073</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.198484794192355</v>
@@ -5434,7 +5398,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.556505244247229</v>
+        <v>1.589352574349744</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.945735600543602</v>
@@ -5523,7 +5487,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.542516962623307</v>
+        <v>1.572101047447878</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.724533495070545</v>
@@ -5612,7 +5576,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.590642439341575</v>
+        <v>1.616428319150634</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.501311818195698</v>
@@ -5701,7 +5665,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.612438208342248</v>
+        <v>1.638458718657072</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.973550210836363</v>
@@ -5790,7 +5754,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.613269388221137</v>
+        <v>1.638816784741463</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.922119866301117</v>
@@ -5879,7 +5843,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.613079732361111</v>
+        <v>1.637870988443125</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.947220586983257</v>
@@ -5968,7 +5932,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.635734978505707</v>
+        <v>1.659120797142922</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.935004746230053</v>
@@ -6057,7 +6021,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.627409407448322</v>
+        <v>1.650428819511457</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.763533630444301</v>
@@ -6146,7 +6110,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.646376068580139</v>
+        <v>1.660741521242172</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.33142359423642</v>
@@ -6235,7 +6199,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.609232834213249</v>
+        <v>1.631841386710766</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.832199101214654</v>
@@ -6324,7 +6288,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.572061861199256</v>
+        <v>1.590747653473827</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.25800499905887</v>
@@ -6413,7 +6377,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.626885737729091</v>
+        <v>1.643773995405249</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.629529794464986</v>
@@ -6502,7 +6466,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.640340085175722</v>
+        <v>1.657838952512548</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.634340601813078</v>
@@ -6591,7 +6555,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.649278156733032</v>
+        <v>1.669395904432335</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.599328575942032</v>
@@ -6680,7 +6644,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.678558737762475</v>
+        <v>1.694793557371548</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.755774250076929</v>
@@ -6769,7 +6733,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.674083817826617</v>
+        <v>1.696533291508118</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.506482372423751</v>
@@ -6858,7 +6822,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.70521005751069</v>
+        <v>1.727783284423182</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.74843058737964</v>
@@ -6947,7 +6911,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.702643684412081</v>
+        <v>1.724831499775075</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.636579580494431</v>
@@ -7036,7 +7000,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.710005249308911</v>
+        <v>1.730747623525155</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.730648041444647</v>
@@ -7125,7 +7089,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.715100118319326</v>
+        <v>1.73484208797985</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.694723847798707</v>
@@ -7214,7 +7178,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.718250215592742</v>
+        <v>1.740629694487507</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.783085256787656</v>
@@ -7303,7 +7267,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.662439230621563</v>
+        <v>1.690362741830318</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.724293221340357</v>
@@ -7392,7 +7356,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.669742017923548</v>
+        <v>1.69978327521556</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.678950795633437</v>
@@ -7481,7 +7445,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.712878199759186</v>
+        <v>1.737031231274844</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.250604575917677</v>
@@ -7570,7 +7534,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.718515438865792</v>
+        <v>1.737879368020371</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.707661934835474</v>
@@ -7659,7 +7623,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.735719593087613</v>
+        <v>1.74986358007223</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.650840974131382</v>
@@ -7945,7 +7909,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.903463095305387</v>
+        <v>1.93893296652521</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.014454365486972</v>
@@ -8034,7 +7998,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.92022360684496</v>
+        <v>1.971133878325775</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>4.032160204066106</v>
@@ -8123,7 +8087,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.937852577850936</v>
+        <v>1.992928892060096</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.977993409946562</v>
@@ -8212,7 +8176,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.947055489269449</v>
+        <v>2.009909103703047</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4.212603974603168</v>
@@ -8301,7 +8265,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.961952480991972</v>
+        <v>2.026969223502011</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.013670547649848</v>
@@ -8390,7 +8354,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.976148104844186</v>
+        <v>2.033831939392612</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.438299293853111</v>
@@ -8479,7 +8443,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.973544120593642</v>
+        <v>2.027592762420136</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.721655984287508</v>
@@ -8568,7 +8532,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.953852513415951</v>
+        <v>2.011740317670187</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.182256041478372</v>
@@ -8657,7 +8621,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.948187163619118</v>
+        <v>2.009265942811821</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.686807717805141</v>
@@ -8746,7 +8710,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.9466427939851</v>
+        <v>2.006720368376929</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.648368191776516</v>
@@ -8835,7 +8799,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.944020082373411</v>
+        <v>2.005244249732435</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.467506762938632</v>
@@ -8924,7 +8888,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.943386258814936</v>
+        <v>2.00788666782057</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.136692143513049</v>
@@ -9013,7 +8977,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.941388062196846</v>
+        <v>2.010048563902569</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.232355507569951</v>
@@ -9102,7 +9066,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.94115622877192</v>
+        <v>2.007872727704559</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.981511373818151</v>
@@ -9191,7 +9155,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.929165782632414</v>
+        <v>2.001612181013808</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.359938386052251</v>
@@ -9280,7 +9244,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.928253501263375</v>
+        <v>2.00801583514935</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.880024663944079</v>
@@ -9369,7 +9333,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.927141774456905</v>
+        <v>2.004263485722745</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.451116123644612</v>
@@ -9458,7 +9422,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.90794165820551</v>
+        <v>1.98102485249075</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.997059171531085</v>
@@ -9547,7 +9511,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.896091619212774</v>
+        <v>1.96328778228037</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.939854607570643</v>
@@ -9636,7 +9600,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.892077282726115</v>
+        <v>1.957950881469442</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.651487717462452</v>
@@ -9725,7 +9689,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.887088188802533</v>
+        <v>1.95739643524166</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.768436491421364</v>
@@ -9814,7 +9778,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.896796955092296</v>
+        <v>1.966245195001677</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.237375463035859</v>
@@ -9903,7 +9867,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.909599104918208</v>
+        <v>1.978465420910233</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.695464819361443</v>
@@ -9992,7 +9956,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.917750231293457</v>
+        <v>1.98460472798958</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.194565030534317</v>
@@ -10081,7 +10045,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.920953294838091</v>
+        <v>1.987477333966443</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.026846829718101</v>
@@ -10170,7 +10134,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.92624028695014</v>
+        <v>1.992908636236705</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.076572628296044</v>
@@ -10259,7 +10223,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.925080842612919</v>
+        <v>1.987681359967962</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.050262001096479</v>
@@ -10348,7 +10312,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.920640470110418</v>
+        <v>1.983358560456203</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.043663426721336</v>
@@ -10437,7 +10401,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.920542091887115</v>
+        <v>1.983701499671917</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.978888544729046</v>
@@ -10526,7 +10490,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.918866310897805</v>
+        <v>1.979059385492657</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.853852851959104</v>
@@ -10615,7 +10579,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.911655536304505</v>
+        <v>1.960577179655982</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.441967233170861</v>
@@ -10704,7 +10668,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.903505174544348</v>
+        <v>1.939506335333248</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.20436829360302</v>
@@ -10793,7 +10757,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.911480366567742</v>
+        <v>1.945459707486627</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.52590342176228</v>
@@ -10882,7 +10846,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.917350286922576</v>
+        <v>1.95340179326088</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.736395994539103</v>
@@ -10971,7 +10935,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.91218650267395</v>
+        <v>1.949650512660236</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.88471839009437</v>
@@ -11060,7 +11024,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.910054847807749</v>
+        <v>1.94547367912538</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.225169744581555</v>
@@ -11149,7 +11113,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.905675631034367</v>
+        <v>1.940231679682928</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.90733994755514</v>
@@ -11238,7 +11202,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.920182149860167</v>
+        <v>1.965806734774623</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.932487074274658</v>
@@ -11327,7 +11291,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.919463150385375</v>
+        <v>1.967376847555888</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.999830358322197</v>
@@ -11416,7 +11380,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.905219021934877</v>
+        <v>1.951520993947951</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.237858939760028</v>
@@ -11505,7 +11469,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.906554048239004</v>
+        <v>1.952360544364498</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.480557885636378</v>
@@ -11594,7 +11558,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.905366684247636</v>
+        <v>1.952599145201443</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.206981372468943</v>
@@ -11683,7 +11647,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.909050429107835</v>
+        <v>1.952435432244445</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.677331231536032</v>
@@ -11772,7 +11736,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.907613035517147</v>
+        <v>1.950828313468315</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.042530842776565</v>
@@ -11861,7 +11825,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.91124876222317</v>
+        <v>1.956752126567463</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.673929648067472</v>
@@ -11950,7 +11914,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.911447076920426</v>
+        <v>1.963221557103056</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.073518004003884</v>
@@ -12039,7 +12003,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.921115144066977</v>
+        <v>1.978473720267291</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.5787337603861</v>
@@ -12128,7 +12092,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.924315787357468</v>
+        <v>1.984283985198673</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.933281620684177</v>
@@ -12217,7 +12181,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.923699745963264</v>
+        <v>1.989414136401527</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.589930786340208</v>
@@ -12503,7 +12467,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.882051872497008</v>
+        <v>1.897986978753285</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.59469956585785</v>
@@ -12592,7 +12556,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.896941500098284</v>
+        <v>1.926726277957652</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>4.129319028385798</v>
@@ -12681,7 +12645,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.904743347678539</v>
+        <v>1.937084098116566</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>4.203403880485333</v>
@@ -12770,7 +12734,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.917619412531294</v>
+        <v>1.951052386445042</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.824638447385182</v>
@@ -12859,7 +12823,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.92093868463154</v>
+        <v>1.957271453428102</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.876974232655562</v>
@@ -12948,7 +12912,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.922662058051603</v>
+        <v>1.958367319376225</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.31944405849895</v>
@@ -13037,7 +13001,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.919958472491966</v>
+        <v>1.955093784998352</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.466661271270988</v>
@@ -13126,7 +13090,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.90969149869037</v>
+        <v>1.944668997205471</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.861953307482431</v>
@@ -13215,7 +13179,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.902835383409192</v>
+        <v>1.940968699481459</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.171928324970949</v>
@@ -13304,7 +13268,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.905934262779114</v>
+        <v>1.950104202986054</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.42264878767853</v>
@@ -13393,7 +13357,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.892331758616442</v>
+        <v>1.930577187407001</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.732754162148294</v>
@@ -13482,7 +13446,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.888965833152422</v>
+        <v>1.924399970485682</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.221875955021837</v>
@@ -13571,7 +13535,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.89156555037596</v>
+        <v>1.92518442188574</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.178712198285578</v>
@@ -13660,7 +13624,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.896096342542392</v>
+        <v>1.924973185144121</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.730103090976176</v>
@@ -13749,7 +13713,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.895342173065712</v>
+        <v>1.927572913945874</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.681400768794691</v>
@@ -13838,7 +13802,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.901331108421603</v>
+        <v>1.933935837632878</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.267431895356763</v>
@@ -13927,7 +13891,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.902348341545244</v>
+        <v>1.93286998854857</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.763624229937064</v>
@@ -14016,7 +13980,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.897118121974724</v>
+        <v>1.92209308201376</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.321003053883256</v>
@@ -14105,7 +14069,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.879621874277588</v>
+        <v>1.903270025513212</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.587383289659002</v>
@@ -14194,7 +14158,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.862283447371008</v>
+        <v>1.881510857799451</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.350164785017478</v>
@@ -14283,7 +14247,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.861577110032844</v>
+        <v>1.882155855172603</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.035192951460894</v>
@@ -14372,7 +14336,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.871401327555578</v>
+        <v>1.893543878229374</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.555236551805501</v>
@@ -14461,7 +14425,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.877533531260853</v>
+        <v>1.898473228318841</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.0945321322852</v>
@@ -14550,7 +14514,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.884454461495771</v>
+        <v>1.902643037985279</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.607430035821978</v>
@@ -14639,7 +14603,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.885496190836576</v>
+        <v>1.90006985969743</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.448079304686343</v>
@@ -14728,7 +14692,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.899012719021312</v>
+        <v>1.916018332575222</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.295453984125436</v>
@@ -14817,7 +14781,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.893372678506904</v>
+        <v>1.90803158188143</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.418491691608736</v>
@@ -14906,7 +14870,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.880913684250152</v>
+        <v>1.888171452405628</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.551450533611893</v>
@@ -14995,7 +14959,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.873791901518709</v>
+        <v>1.886268263475238</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.537926585057953</v>
@@ -15084,7 +15048,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.867776568825007</v>
+        <v>1.873836179798286</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.30265823906922</v>
@@ -15173,7 +15137,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.863115715909303</v>
+        <v>1.859562415355659</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.942561741049849</v>
@@ -15262,7 +15226,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.858019461019709</v>
+        <v>1.842643370331201</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.307598850509969</v>
@@ -15351,7 +15315,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.852637197738347</v>
+        <v>1.838171603135198</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.545877494558198</v>
@@ -15440,7 +15404,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.852436009086825</v>
+        <v>1.840774562548081</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.038751427158019</v>
@@ -15529,7 +15493,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.864711244564565</v>
+        <v>1.847222362424147</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.695792959852393</v>
@@ -15618,7 +15582,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.864512109953644</v>
+        <v>1.843552486380071</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.72897414846718</v>
@@ -15707,7 +15671,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.86196533569879</v>
+        <v>1.838373009839979</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.56383034522804</v>
@@ -15796,7 +15760,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.866810033508516</v>
+        <v>1.85231004373178</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.976892317265319</v>
@@ -15885,7 +15849,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.866646622552767</v>
+        <v>1.850708593507346</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.388238548055243</v>
@@ -15974,7 +15938,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.868163282133076</v>
+        <v>1.850902759782168</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.444553273464748</v>
@@ -16063,7 +16027,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.865107066980268</v>
+        <v>1.857612686018477</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.461070862394813</v>
@@ -16152,7 +16116,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.874994151552061</v>
+        <v>1.866800025761681</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.210454202008308</v>
@@ -16241,7 +16205,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.881056348091366</v>
+        <v>1.876776982766249</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.343983248523716</v>
@@ -16330,7 +16294,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.883808377625014</v>
+        <v>1.878676730241781</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.445458598984008</v>
@@ -16419,7 +16383,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.873668205652346</v>
+        <v>1.870448077700177</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.993843127051386</v>
@@ -16508,7 +16472,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.864457537626077</v>
+        <v>1.869771756124766</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.008526056497339</v>
@@ -16597,7 +16561,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.871351525263296</v>
+        <v>1.883503359374736</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.276450705231169</v>
@@ -16686,7 +16650,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.870555183301785</v>
+        <v>1.882509513360076</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.208348849107505</v>
@@ -16775,7 +16739,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.877654375833934</v>
+        <v>1.889607539994338</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.821374776472819</v>
@@ -17061,7 +17025,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.878377899836654</v>
+        <v>1.840032394935746</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.110710278959035</v>
@@ -17150,7 +17114,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.881210083081097</v>
+        <v>1.853235263951623</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.805210534337403</v>
@@ -17239,7 +17203,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.888700408437968</v>
+        <v>1.862428344886354</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>4.005723743417924</v>
@@ -17328,7 +17292,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.899097631638271</v>
+        <v>1.877540185493473</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4.131714142857632</v>
@@ -17417,7 +17381,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.903449183044743</v>
+        <v>1.886949250763075</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.145831208391785</v>
@@ -17506,7 +17470,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.900064214051577</v>
+        <v>1.897063173480182</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.251334545645795</v>
@@ -17595,7 +17559,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.899559023858817</v>
+        <v>1.901551593786177</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.416986108913782</v>
@@ -17684,7 +17648,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.895203518164583</v>
+        <v>1.898957686492225</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.666854050615705</v>
@@ -17773,7 +17737,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.88458511698728</v>
+        <v>1.892973161783414</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.664245138931557</v>
@@ -17862,7 +17826,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.885774228483895</v>
+        <v>1.894787964906562</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.495469228645386</v>
@@ -17951,7 +17915,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.876669874589129</v>
+        <v>1.88116929373153</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.549540053652626</v>
@@ -18040,7 +18004,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.874258647292128</v>
+        <v>1.875166309382654</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.301953450406467</v>
@@ -18129,7 +18093,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.882930685927721</v>
+        <v>1.886650476308288</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.090013613447373</v>
@@ -18218,7 +18182,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.882865921946963</v>
+        <v>1.884101755187485</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.089078070007652</v>
@@ -18307,7 +18271,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.86827801414838</v>
+        <v>1.868044503500234</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.537027058261193</v>
@@ -18396,7 +18360,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.872510631837416</v>
+        <v>1.874608776606229</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.220714672047873</v>
@@ -18485,7 +18449,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.860422231486043</v>
+        <v>1.861690589246398</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.198072843793592</v>
@@ -18574,7 +18538,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.845759747136513</v>
+        <v>1.848874902594194</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.256852673567604</v>
@@ -18663,7 +18627,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.848469279304177</v>
+        <v>1.842792862730241</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.84990727290519</v>
@@ -18752,7 +18716,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.805257535097142</v>
+        <v>1.802112582794219</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.872566972809748</v>
@@ -18841,7 +18805,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.80629768551133</v>
+        <v>1.79648143114067</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.931680972858023</v>
@@ -18930,7 +18894,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.805314258865446</v>
+        <v>1.795154553521724</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.651809171706138</v>
@@ -19019,7 +18983,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.810352739177738</v>
+        <v>1.797885928537037</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.797189502979946</v>
@@ -19108,7 +19072,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.818454016500704</v>
+        <v>1.801643256372459</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.872779127149608</v>
@@ -19197,7 +19161,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.811679347562393</v>
+        <v>1.791242155429181</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.9093019484106</v>
@@ -19286,7 +19250,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.819953743105463</v>
+        <v>1.803256548469051</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.929325251276206</v>
@@ -19375,7 +19339,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.822121247268696</v>
+        <v>1.805194298652473</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.890705664938173</v>
@@ -19464,7 +19428,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.814736487410389</v>
+        <v>1.792716697886496</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.819874234203295</v>
@@ -19553,7 +19517,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.814532286138984</v>
+        <v>1.792937172857182</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.728081926638728</v>
@@ -19642,7 +19606,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.821039513716458</v>
+        <v>1.797950360287277</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.790107893721701</v>
@@ -19731,7 +19695,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.814708350636987</v>
+        <v>1.788783674677079</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.885783241390027</v>
@@ -19820,7 +19784,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.828242754239046</v>
+        <v>1.795270064782453</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.590369441413635</v>
@@ -19909,7 +19873,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.831753694108062</v>
+        <v>1.802094218742322</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.361371149420272</v>
@@ -19998,7 +19962,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.821183412938023</v>
+        <v>1.792187455403103</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.525614342703565</v>
@@ -20087,7 +20051,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.862497144712597</v>
+        <v>1.825912851620629</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.563400498808803</v>
@@ -20176,7 +20140,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.860744819349499</v>
+        <v>1.825378342407034</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.982379041078329</v>
@@ -20265,7 +20229,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.861384766068892</v>
+        <v>1.824801928699541</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.474565970151312</v>
@@ -20354,7 +20318,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.860992162398004</v>
+        <v>1.825669845789828</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.210403385955472</v>
@@ -20443,7 +20407,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.859191242063747</v>
+        <v>1.824513601039657</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.230403968481388</v>
@@ -20532,7 +20496,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.871972608464395</v>
+        <v>1.836062874015255</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.163781788199241</v>
@@ -20621,7 +20585,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.871075941837808</v>
+        <v>1.833701385227992</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.09588450564476</v>
@@ -20710,7 +20674,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.870226075731306</v>
+        <v>1.836008487459101</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.65986071711063</v>
@@ -20799,7 +20763,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.874948483677962</v>
+        <v>1.84224362461176</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.899170392515457</v>
@@ -20888,7 +20852,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.875789932011298</v>
+        <v>1.843908498921056</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.727358679787667</v>
@@ -20977,7 +20941,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.862022622082427</v>
+        <v>1.827388526028459</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.699224640127539</v>
@@ -21066,7 +21030,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.863915919851491</v>
+        <v>1.832075757842988</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.733221235716551</v>
@@ -21155,7 +21119,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.873144010524928</v>
+        <v>1.840046006928499</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.51254252748398</v>
@@ -21244,7 +21208,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.875444036204047</v>
+        <v>1.83733135126063</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.03008216649561</v>
@@ -21333,7 +21297,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.877118761412814</v>
+        <v>1.843903970854481</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.885899684160512</v>
@@ -21619,7 +21583,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.569008951503221</v>
+        <v>1.549965592981573</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.630568471422249</v>
@@ -21708,7 +21672,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.586355926450458</v>
+        <v>1.576698153324104</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.638834909243152</v>
@@ -21797,7 +21761,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.592128570987508</v>
+        <v>1.58304049367193</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.437281879204281</v>
@@ -21886,7 +21850,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.592835522680098</v>
+        <v>1.58677519814763</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.529296037762661</v>
@@ -21975,7 +21939,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.63294469902229</v>
+        <v>1.626286806470039</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.463674232016614</v>
@@ -22064,7 +22028,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.665551173196133</v>
+        <v>1.657610673717643</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.086620910766899</v>
@@ -22153,7 +22117,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.680694914930237</v>
+        <v>1.669915624831804</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.845714429674954</v>
@@ -22242,7 +22206,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.645858434143349</v>
+        <v>1.645060718929585</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.555987044257503</v>
@@ -22331,7 +22295,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.628453258480886</v>
+        <v>1.642417801362374</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.655347881026645</v>
@@ -22420,7 +22384,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.620744089765646</v>
+        <v>1.638583975616574</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.612107137371557</v>
@@ -22509,7 +22473,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.622708330981866</v>
+        <v>1.637642172235528</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.599254172953306</v>
@@ -22598,7 +22562,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.630538150040288</v>
+        <v>1.640465966489639</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.684296132029881</v>
@@ -22687,7 +22651,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.629263280662589</v>
+        <v>1.639969439450724</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.676550154842332</v>
@@ -22776,7 +22740,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.61389739662087</v>
+        <v>1.620968217660602</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.691428468614523</v>
@@ -22865,7 +22829,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.602573264186431</v>
+        <v>1.60627843157699</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.676543278943625</v>
@@ -22954,7 +22918,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.60914379826888</v>
+        <v>1.618355193754589</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.700473894725646</v>
@@ -23043,7 +23007,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.582836637732495</v>
+        <v>1.59275573388137</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.529528774788006</v>
@@ -23132,7 +23096,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.516718004335495</v>
+        <v>1.523174654185868</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.236047075984299</v>
@@ -23221,7 +23185,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.485528531715846</v>
+        <v>1.498206914057967</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.383733611224985</v>
@@ -23310,7 +23274,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.465574802169384</v>
+        <v>1.476032909263422</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.372602209956069</v>
@@ -23399,7 +23363,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.464584345256055</v>
+        <v>1.473306913039673</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.36075370884809</v>
@@ -23488,7 +23452,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.462146397629035</v>
+        <v>1.464526498104948</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.196766725565606</v>
@@ -23577,7 +23541,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.479263848967406</v>
+        <v>1.474802551315543</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.145094831247141</v>
@@ -23666,7 +23630,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.470667378773552</v>
+        <v>1.467404208133963</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.362875978837273</v>
@@ -23755,7 +23719,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.471327180048284</v>
+        <v>1.46745696971946</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.301126169995963</v>
@@ -23844,7 +23808,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.494057337728697</v>
+        <v>1.493880675395343</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.297191941870873</v>
@@ -23933,7 +23897,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.499354856307059</v>
+        <v>1.496947949292439</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.384660764026703</v>
@@ -24022,7 +23986,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.505383396451118</v>
+        <v>1.495332072685716</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.394948632370007</v>
@@ -24111,7 +24075,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.51537297552374</v>
+        <v>1.511093909749518</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.360407835833992</v>
@@ -24200,7 +24164,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.527538823633211</v>
+        <v>1.524318014979475</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.348575640524101</v>
@@ -24289,7 +24253,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.530425887760505</v>
+        <v>1.523419778428682</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.343348000252629</v>
@@ -24378,7 +24342,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.549565243069752</v>
+        <v>1.539633812242298</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.384844370015179</v>
@@ -24467,7 +24431,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.617528542647513</v>
+        <v>1.600464858387112</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.177522400717729</v>
@@ -24556,7 +24520,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.669281845850774</v>
+        <v>1.650382206581744</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.328233543283322</v>
@@ -24645,7 +24609,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.707037707331506</v>
+        <v>1.681787382738248</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.32396387908965</v>
@@ -24734,7 +24698,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.708099429520256</v>
+        <v>1.686669404182628</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.24948476626319</v>
@@ -24823,7 +24787,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.708656394321589</v>
+        <v>1.688095040745498</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.352458379637115</v>
@@ -24912,7 +24876,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.720567743432137</v>
+        <v>1.701618766558785</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.330232054045344</v>
@@ -25001,7 +24965,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.73417207689531</v>
+        <v>1.704207212514367</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.038777595514968</v>
@@ -25090,7 +25054,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.729265098391543</v>
+        <v>1.700892933283535</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.187376633045993</v>
@@ -25179,7 +25143,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.707264305319649</v>
+        <v>1.679503676241457</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.240576155648967</v>
@@ -25268,7 +25232,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.714067128255904</v>
+        <v>1.690012110435661</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.832220732471462</v>
@@ -25357,7 +25321,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.718414928566819</v>
+        <v>1.707053419572325</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.068548962786359</v>
@@ -25446,7 +25410,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.717232972829951</v>
+        <v>1.70156398662865</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.10727062408705</v>
@@ -25535,7 +25499,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.710317799556078</v>
+        <v>1.699803529791095</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.880922418042926</v>
@@ -25624,7 +25588,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.707189981179246</v>
+        <v>1.702849100276996</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.068203523738052</v>
@@ -25713,7 +25677,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.719174372392057</v>
+        <v>1.710992044624943</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.863622395680685</v>
@@ -25802,7 +25766,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.718791598421018</v>
+        <v>1.704389469016448</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.618824647094668</v>
@@ -25891,7 +25855,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.717497403408736</v>
+        <v>1.702924454314251</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.900859434587409</v>
@@ -26177,7 +26141,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.780707438833494</v>
+        <v>1.788667580728731</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.889429759893932</v>
@@ -26266,7 +26230,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.779189569606065</v>
+        <v>1.793517004106564</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.63623151448745</v>
@@ -26355,7 +26319,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.791285100931337</v>
+        <v>1.813813458090796</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.9667678624929</v>
@@ -26444,7 +26408,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.810280939546499</v>
+        <v>1.828334988178452</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.077415996618258</v>
@@ -26533,7 +26497,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.816883255866763</v>
+        <v>1.837034359435183</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.993502207629597</v>
@@ -26622,7 +26586,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.783335167369178</v>
+        <v>1.811314416416514</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.915795683429489</v>
@@ -26711,7 +26675,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.786145869863691</v>
+        <v>1.822815010889023</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.982306830506497</v>
@@ -26800,7 +26764,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.76537504860512</v>
+        <v>1.799343172976235</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.114474578009386</v>
@@ -26889,7 +26853,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.73098170922903</v>
+        <v>1.770629996110286</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.933980722207292</v>
@@ -26978,7 +26942,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.726841840802684</v>
+        <v>1.76262642934471</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.772161736791259</v>
@@ -27067,7 +27031,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.721518320618145</v>
+        <v>1.756965774865956</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.569338577134089</v>
@@ -27156,7 +27120,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.704672658572863</v>
+        <v>1.741192407872934</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.965174299065875</v>
@@ -27245,7 +27209,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.715647717288427</v>
+        <v>1.753113577739665</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.088875337705206</v>
@@ -27334,7 +27298,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.714057785785942</v>
+        <v>1.752975719639289</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.168799910090534</v>
@@ -27423,7 +27387,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.693517467341344</v>
+        <v>1.730106844958148</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.350661860432858</v>
@@ -27512,7 +27476,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.707154057145204</v>
+        <v>1.739573764115753</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.794643893621976</v>
@@ -27601,7 +27565,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.686660470252591</v>
+        <v>1.719627432832673</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.963732840074085</v>
@@ -27690,7 +27654,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.655641198303542</v>
+        <v>1.688503130411441</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.0891618331461</v>
@@ -27779,7 +27743,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.570971592901362</v>
+        <v>1.618803969630736</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.98902863691989</v>
@@ -27868,7 +27832,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.537939520051509</v>
+        <v>1.583265034683895</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.987088754776276</v>
@@ -27957,7 +27921,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.54552527652149</v>
+        <v>1.588423356342323</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.987320992048614</v>
@@ -28046,7 +28010,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.546144104901332</v>
+        <v>1.587042152309117</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.008841163451037</v>
@@ -28135,7 +28099,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.538879389247999</v>
+        <v>1.583854169777736</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.958286510689772</v>
@@ -28224,7 +28188,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.562731902213284</v>
+        <v>1.604879486448459</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.992559453310671</v>
@@ -28313,7 +28277,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.555262599031517</v>
+        <v>1.598173999610314</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.967529974813871</v>
@@ -28402,7 +28366,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.577343942501986</v>
+        <v>1.618733823517269</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.929359478203887</v>
@@ -28491,7 +28455,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.586940985627671</v>
+        <v>1.627096061457861</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.965653229273952</v>
@@ -28580,7 +28544,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.578026149290328</v>
+        <v>1.616731346653556</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.939013834179564</v>
@@ -28669,7 +28633,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.575105141433394</v>
+        <v>1.612612862994738</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.955913280994656</v>
@@ -28758,7 +28722,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.584028461914854</v>
+        <v>1.619138050336731</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.930438067683128</v>
@@ -28847,7 +28811,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.572199582363629</v>
+        <v>1.608664144508917</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.90466243647383</v>
@@ -28936,7 +28900,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.594541602671339</v>
+        <v>1.626375604428279</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.932219346691048</v>
@@ -29025,7 +28989,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.605657994123314</v>
+        <v>1.634299704539376</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.668402393465868</v>
@@ -29114,7 +29078,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.670832591364669</v>
+        <v>1.687633836692305</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.162858193700641</v>
@@ -29203,7 +29167,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.718620162404688</v>
+        <v>1.734059650585926</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.080995106541321</v>
@@ -29292,7 +29256,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.719424731282167</v>
+        <v>1.734811557949332</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.142271426810815</v>
@@ -29381,7 +29345,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.725382644514881</v>
+        <v>1.740629919842269</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.894448602966498</v>
@@ -29470,7 +29434,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.750963010549389</v>
+        <v>1.759111689835061</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.166727914566058</v>
@@ -29559,7 +29523,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.740094650586654</v>
+        <v>1.754084895520363</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.109681438216956</v>
@@ -29648,7 +29612,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.768987419016122</v>
+        <v>1.776584612359378</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.025592696020022</v>
@@ -29737,7 +29701,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.769112117102751</v>
+        <v>1.7765085891296</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.939256895596102</v>
@@ -29826,7 +29790,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.777868797094837</v>
+        <v>1.784957331069327</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.902427275781203</v>
@@ -29915,7 +29879,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.780097962345982</v>
+        <v>1.782648704634144</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.059001801356142</v>
@@ -30004,7 +29968,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.770308861685218</v>
+        <v>1.775798378248399</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.94860648398126</v>
@@ -30093,7 +30057,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.698515500858218</v>
+        <v>1.716723057885073</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.603313150012402</v>
@@ -30182,7 +30146,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.709692996175984</v>
+        <v>1.72586177004702</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.664224885578329</v>
@@ -30271,7 +30235,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.726452622294032</v>
+        <v>1.734361889984275</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.584158961702077</v>
@@ -30360,7 +30324,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.747360279537638</v>
+        <v>1.749581244051881</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.668685669947783</v>
@@ -30449,7 +30413,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.767965149192412</v>
+        <v>1.771369680301761</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.661082438342688</v>
